--- a/competences.xlsx
+++ b/competences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gosman/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bensa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD607C19-8393-1147-9752-9B89A961AAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12ADD8D-FE22-409C-BEBB-7EC1578F437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau de synthèse Épreuve E4" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -86,15 +86,6 @@
 ▸Développer son projet professionnel</t>
   </si>
   <si>
-    <t>Centre de formation :</t>
-  </si>
-  <si>
-    <t>▢ SISR</t>
-  </si>
-  <si>
-    <t>▢ SLAM</t>
-  </si>
-  <si>
     <t xml:space="preserve">Réalisation en cours de formation
 </t>
   </si>
@@ -107,9 +98,6 @@
     <t xml:space="preserve">N° candidat : </t>
   </si>
   <si>
-    <t xml:space="preserve">NOM et prénom : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -119,10 +107,91 @@
     <t>Réalisations en milieu professionnel en cours de seconde année</t>
   </si>
   <si>
-    <t>Adresse URL du portfolio :</t>
-  </si>
-  <si>
     <t>SESSION 2025</t>
+  </si>
+  <si>
+    <t>NOM et prénom : BEN SASSI Bibros</t>
+  </si>
+  <si>
+    <t>Centre de formation : ORT Daniel Mayer</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>19/05/2025 au 02/07/2025</t>
+  </si>
+  <si>
+    <t>✅ Collecter et orienter des demandes
+✅ Traiter des demandes réseau</t>
+  </si>
+  <si>
+    <t>✅ Analyser les objectifs du projet
+✅ Planifier les activités</t>
+  </si>
+  <si>
+    <t>✅ Réaliser des tests d’intégration
+✅ Déployer un service
+✅ Accompagner les utilisateurs</t>
+  </si>
+  <si>
+    <t>✅ Gérer son identité professionnelle
+✅ Développer son projet professionnel</t>
+  </si>
+  <si>
+    <t>2024 -2026</t>
+  </si>
+  <si>
+    <t>✅ Traiter des demandes réseau
+ et système</t>
+  </si>
+  <si>
+    <t>✅ Analyser les objectifs
+✅ Planifier les activités
+✅ Évaluer les indicateurs</t>
+  </si>
+  <si>
+    <t>✅ Réaliser les tests d’intégration
+✅ Déployer un service
+✅ Accompagner les utilisateurs</t>
+  </si>
+  <si>
+    <t>✅ Mettre en place son environnement d’apprentissage
+✅ Gérer son identité professionnelle</t>
+  </si>
+  <si>
+    <t>▢ SISR</t>
+  </si>
+  <si>
+    <t>Portfolio : https://bensassibibros.wixsite.com/portfolio</t>
+  </si>
+  <si>
+    <t>✅ Exploiter des référentiels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✅ Recenser et identifier les ressources
+</t>
+  </si>
+  <si>
+    <t>✅ Gérer des sauvegardes</t>
+  </si>
+  <si>
+    <t>✅ Mettre en place les habilitations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">✅ Recenser et identifier les ressources
+</t>
+  </si>
+  <si>
+    <t>✅ Vérifier la continuité de service</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Maîtrise des services réseau et de la gestion de parc
+- Documents : Dossier PfSense, docs GLPI, schémas VLAN, procédures DHCP/DNS/AD, étude RIP/OSPF</t>
+  </si>
+  <si>
+    <t>- Conception et déploiement d'une infrastructure réseau sécurisée
+- Documents : Cahier des charges, schémas réseau, procédures VLAN, docs PfSense, plan IP, tests, rapport de stage</t>
   </si>
 </sst>
 </file>
@@ -190,8 +259,9 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="Arial"/>
+      <sz val="9"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -594,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -641,9 +711,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -659,15 +726,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,30 +811,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1035,97 +1123,98 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
     <col min="3" max="8" width="18.6640625" style="1" customWidth="1"/>
-    <col min="44" max="16384" width="10.83203125" style="1"/>
+    <col min="9" max="43" width="11.5546875" customWidth="1"/>
+    <col min="44" max="16384" width="10.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="24"/>
-    </row>
-    <row r="2" spans="1:43" ht="41" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="28"/>
+    </row>
+    <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-    </row>
-    <row r="3" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="43"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+    </row>
+    <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="30"/>
+      <c r="H3" s="36"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:43" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41"/>
+    <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="34"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="49"/>
+    </row>
+    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-    </row>
-    <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="31" t="s">
-        <v>22</v>
+      <c r="B6" s="45" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1146,13 +1235,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:43" s="2" customFormat="1" ht="325" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
-      <c r="B7" s="32"/>
-      <c r="C7" s="8" t="s">
+    <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="21" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1203,17 +1292,17 @@
       <c r="AP7"/>
       <c r="AQ7"/>
     </row>
-    <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
+    <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A8" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1250,15 +1339,29 @@
       <c r="AP8"/>
       <c r="AQ8"/>
     </row>
-    <row r="9" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="18"/>
+    <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="16"/>
+      <c r="F9" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>34</v>
+      </c>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1295,15 +1398,17 @@
       <c r="AP9"/>
       <c r="AQ9"/>
     </row>
-    <row r="10" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="18"/>
+      <c r="C10" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1340,15 +1445,17 @@
       <c r="AP10"/>
       <c r="AQ10"/>
     </row>
-    <row r="11" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
+      <c r="C11" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1385,15 +1492,17 @@
       <c r="AP11"/>
       <c r="AQ11"/>
     </row>
-    <row r="12" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="18"/>
+      <c r="C12" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1430,15 +1539,15 @@
       <c r="AP12"/>
       <c r="AQ12"/>
     </row>
-    <row r="13" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="18"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1475,15 +1584,15 @@
       <c r="AP13"/>
       <c r="AQ13"/>
     </row>
-    <row r="14" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1520,15 +1629,15 @@
       <c r="AP14"/>
       <c r="AQ14"/>
     </row>
-    <row r="15" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1565,15 +1674,15 @@
       <c r="AP15"/>
       <c r="AQ15"/>
     </row>
-    <row r="16" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1610,15 +1719,15 @@
       <c r="AP16"/>
       <c r="AQ16"/>
     </row>
-    <row r="17" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="18"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1655,15 +1764,15 @@
       <c r="AP17"/>
       <c r="AQ17"/>
     </row>
-    <row r="18" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="18"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1700,17 +1809,17 @@
       <c r="AP18"/>
       <c r="AQ18"/>
     </row>
-    <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A19" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="30"/>
+    <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A19" s="42" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="44"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1747,15 +1856,29 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="18"/>
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H20" s="25" t="s">
+        <v>29</v>
+      </c>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1792,15 +1915,17 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="18"/>
+      <c r="C21" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="25"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1837,15 +1962,17 @@
       <c r="AP21"/>
       <c r="AQ21"/>
     </row>
-    <row r="22" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="18"/>
+      <c r="C22" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -1882,15 +2009,15 @@
       <c r="AP22"/>
       <c r="AQ22"/>
     </row>
-    <row r="23" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="18"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -1927,15 +2054,15 @@
       <c r="AP23"/>
       <c r="AQ23"/>
     </row>
-    <row r="24" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="18"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -1972,15 +2099,15 @@
       <c r="AP24"/>
       <c r="AQ24"/>
     </row>
-    <row r="25" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="18"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2017,15 +2144,15 @@
       <c r="AP25"/>
       <c r="AQ25"/>
     </row>
-    <row r="26" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="18"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2062,17 +2189,17 @@
       <c r="AP26"/>
       <c r="AQ26"/>
     </row>
-    <row r="27" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.15">
-      <c r="A27" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+    <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A27" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2109,15 +2236,15 @@
       <c r="AP27"/>
       <c r="AQ27"/>
     </row>
-    <row r="28" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="18"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="17"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2154,15 +2281,15 @@
       <c r="AP28"/>
       <c r="AQ28"/>
     </row>
-    <row r="29" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="18"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="17"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2199,15 +2326,15 @@
       <c r="AP29"/>
       <c r="AQ29"/>
     </row>
-    <row r="30" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="18"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="17"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2244,15 +2371,15 @@
       <c r="AP30"/>
       <c r="AQ30"/>
     </row>
-    <row r="31" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="18"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2289,15 +2416,15 @@
       <c r="AP31"/>
       <c r="AQ31"/>
     </row>
-    <row r="32" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="18"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="17"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2334,15 +2461,15 @@
       <c r="AP32"/>
       <c r="AQ32"/>
     </row>
-    <row r="33" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="18"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="17"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2379,15 +2506,15 @@
       <c r="AP33"/>
       <c r="AQ33"/>
     </row>
-    <row r="34" spans="1:43" s="2" customFormat="1" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2424,7 +2551,7 @@
       <c r="AP34"/>
       <c r="AQ34"/>
     </row>
-    <row r="35" spans="1:43" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:43" s="2" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -2469,59 +2596,54 @@
       <c r="AP35"/>
       <c r="AQ35"/>
     </row>
-    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="49" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="50" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="51" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="52" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="53" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="54" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="55" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="56" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="57" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="58" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="59" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="60" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="61" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="62" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="63" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="64" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="65" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="66" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="67" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="68" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="69" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="70" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="71" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="72" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="73" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="74" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="75" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="76" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="77" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="78" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="79" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="80" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="81" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="36" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:43" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2529,11 +2651,16 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait"/>
+  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/competences.xlsx
+++ b/competences.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bensa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\simple-portfolio\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12ADD8D-FE22-409C-BEBB-7EC1578F437D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DABC96-A2FA-4E18-B341-57EF0EBB5837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>Gérer le patrimoine informatique</t>
   </si>
@@ -122,76 +122,49 @@
     <t>19/05/2025 au 02/07/2025</t>
   </si>
   <si>
-    <t>✅ Collecter et orienter des demandes
-✅ Traiter des demandes réseau</t>
-  </si>
-  <si>
-    <t>✅ Analyser les objectifs du projet
-✅ Planifier les activités</t>
-  </si>
-  <si>
-    <t>✅ Réaliser des tests d’intégration
-✅ Déployer un service
-✅ Accompagner les utilisateurs</t>
-  </si>
-  <si>
-    <t>✅ Gérer son identité professionnelle
-✅ Développer son projet professionnel</t>
-  </si>
-  <si>
-    <t>2024 -2026</t>
-  </si>
-  <si>
-    <t>✅ Traiter des demandes réseau
- et système</t>
-  </si>
-  <si>
-    <t>✅ Analyser les objectifs
-✅ Planifier les activités
-✅ Évaluer les indicateurs</t>
-  </si>
-  <si>
-    <t>✅ Réaliser les tests d’intégration
-✅ Déployer un service
-✅ Accompagner les utilisateurs</t>
-  </si>
-  <si>
-    <t>✅ Mettre en place son environnement d’apprentissage
-✅ Gérer son identité professionnelle</t>
-  </si>
-  <si>
     <t>▢ SISR</t>
   </si>
   <si>
     <t>Portfolio : https://bensassibibros.wixsite.com/portfolio</t>
   </si>
   <si>
-    <t>✅ Exploiter des référentiels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✅ Recenser et identifier les ressources
-</t>
-  </si>
-  <si>
-    <t>✅ Gérer des sauvegardes</t>
-  </si>
-  <si>
-    <t>✅ Mettre en place les habilitations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">✅ Recenser et identifier les ressources
-</t>
-  </si>
-  <si>
-    <t>✅ Vérifier la continuité de service</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Maîtrise des services réseau et de la gestion de parc
-- Documents : Dossier PfSense, docs GLPI, schémas VLAN, procédures DHCP/DNS/AD, étude RIP/OSPF</t>
-  </si>
-  <si>
-    <t>- Conception et déploiement d'une infrastructure réseau sécurisée
-- Documents : Cahier des charges, schémas réseau, procédures VLAN, docs PfSense, plan IP, tests, rapport de stage</t>
+    <t>Installation et configation de serveurs Debian</t>
+  </si>
+  <si>
+    <t>Configuration de VLAN natif 999 et segmentation réseau</t>
+  </si>
+  <si>
+    <t>Déploiement d'un serveur DHCP et DNS</t>
+  </si>
+  <si>
+    <t>Supervision du réseau avec GLPI</t>
+  </si>
+  <si>
+    <t>Assistance et support aux utilisateurs</t>
+  </si>
+  <si>
+    <t>Gérer le serveur</t>
+  </si>
+  <si>
+    <t>Installation d'OCS</t>
+  </si>
+  <si>
+    <t>Mise en place OCS</t>
+  </si>
+  <si>
+    <t>Installation de pfSense</t>
+  </si>
+  <si>
+    <t>Installation du Serveur TrueNAS</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> X</t>
+  </si>
+  <si>
+    <t>Mise en place pfSence</t>
   </si>
 </sst>
 </file>
@@ -201,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -264,6 +237,25 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -664,7 +656,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -747,9 +739,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -774,44 +805,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1123,11 +1139,11 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="70.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.77734375" style="1" customWidth="1"/>
@@ -1137,56 +1153,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="28"/>
+      <c r="H1" s="30"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="35" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="36"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="49"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="34"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
@@ -1194,26 +1210,26 @@
         <v>24</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+      <c r="A5" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="41"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1236,8 +1252,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
-      <c r="B7" s="46"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="21" t="s">
         <v>9</v>
       </c>
@@ -1293,16 +1309,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="41"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1341,26 +1357,28 @@
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="24" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="B9" s="50">
+        <v>45901</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>38</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H9" s="25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1399,11 +1417,13 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="24" t="s">
-        <v>37</v>
-      </c>
+      <c r="A10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="50">
+        <v>45901</v>
+      </c>
+      <c r="C10" s="24"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
@@ -1446,16 +1466,30 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="10"/>
+      <c r="A11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="50">
+        <v>45901</v>
+      </c>
       <c r="C11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1493,16 +1527,30 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="10"/>
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="50">
+        <v>45901</v>
+      </c>
       <c r="C12" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
+        <v>38</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1540,14 +1588,30 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17"/>
+      <c r="A13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="50">
+        <v>45901</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1585,14 +1649,30 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
+      <c r="A14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="50">
+        <v>45901</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1630,8 +1710,12 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="10"/>
+      <c r="A15" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="50">
+        <v>45901</v>
+      </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -1675,14 +1759,30 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
+      <c r="A16" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="50">
+        <v>45931</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>38</v>
+      </c>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1720,8 +1820,12 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
-      <c r="B17" s="10"/>
+      <c r="A17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="50">
+        <v>45931</v>
+      </c>
       <c r="C17" s="16"/>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -1810,16 +1914,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="44"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1856,28 +1960,30 @@
       <c r="AP19"/>
       <c r="AQ19"/>
     </row>
-    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="27" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="26" t="s">
-        <v>41</v>
+      <c r="C20" s="54" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="16"/>
-      <c r="F20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="56" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="57" t="s">
+        <v>38</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -1915,17 +2021,31 @@
       <c r="AP20"/>
       <c r="AQ20"/>
     </row>
-    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="25"/>
+    <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="57" t="s">
+        <v>38</v>
+      </c>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1965,9 +2085,7 @@
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="C22" s="23"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
@@ -2190,16 +2308,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="43"/>
-      <c r="H27" s="44"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2644,6 +2762,11 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2651,11 +2774,6 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>

--- a/competences.xlsx
+++ b/competences.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trist\simple-portfolio\portfolio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33DABC96-A2FA-4E18-B341-57EF0EBB5837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2D8E19-C3F9-4697-83BE-3EEC8A5C2FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -95,9 +95,6 @@
 (intitulé et liste des documents et productions associés)</t>
   </si>
   <si>
-    <t xml:space="preserve">N° candidat : </t>
-  </si>
-  <si>
     <t>Période (sous la forme du JJ/MM/AA au JJ/MM/AA)</t>
   </si>
   <si>
@@ -110,24 +107,15 @@
     <t>SESSION 2025</t>
   </si>
   <si>
-    <t>NOM et prénom : BEN SASSI Bibros</t>
-  </si>
-  <si>
     <t>Centre de formation : ORT Daniel Mayer</t>
   </si>
   <si>
-    <t>)</t>
-  </si>
-  <si>
     <t>19/05/2025 au 02/07/2025</t>
   </si>
   <si>
     <t>▢ SISR</t>
   </si>
   <si>
-    <t>Portfolio : https://bensassibibros.wixsite.com/portfolio</t>
-  </si>
-  <si>
     <t>Installation et configation de serveurs Debian</t>
   </si>
   <si>
@@ -165,6 +153,18 @@
   </si>
   <si>
     <t>Mise en place pfSence</t>
+  </si>
+  <si>
+    <t>NOM et prénom : MOMHA Tristan</t>
+  </si>
+  <si>
+    <t>SISR</t>
+  </si>
+  <si>
+    <t>Portfolio : https://tristanm-ort.github.io/portfolio/</t>
+  </si>
+  <si>
+    <t>N° candidat : 01948690879</t>
   </si>
 </sst>
 </file>
@@ -174,7 +174,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-1]_-;\-* #,##0.00\ [$€-1]_-;_-* &quot;-&quot;??\ [$€-1]_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -256,13 +256,26 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="29">
@@ -656,7 +669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -700,9 +713,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -739,15 +749,69 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -780,54 +844,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1139,8 +1155,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="70" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1153,84 +1169,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="30"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:43" ht="40.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
     </row>
     <row r="3" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="49"/>
+      <c r="A3" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="39"/>
+      <c r="H3" s="45"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
+      <c r="A4" s="41" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="43"/>
       <c r="F4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>26</v>
+      <c r="G4" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:43" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="41"/>
+      <c r="A5" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="37" t="s">
-        <v>18</v>
+      <c r="B6" s="54" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>0</v>
@@ -1252,12 +1268,12 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="325.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="21" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="8" t="s">
@@ -1309,16 +1325,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="B8" s="49"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="50"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1356,29 +1372,29 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="50">
+      <c r="A9" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="27">
         <v>45901</v>
       </c>
-      <c r="C9" s="51" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>38</v>
+      <c r="C9" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="I9"/>
       <c r="J9"/>
@@ -1418,17 +1434,17 @@
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="50">
+        <v>25</v>
+      </c>
+      <c r="B10" s="27">
         <v>45901</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1467,28 +1483,28 @@
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="50">
+        <v>26</v>
+      </c>
+      <c r="B11" s="27">
         <v>45901</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G11" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="17" t="s">
-        <v>38</v>
+      <c r="C11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1528,28 +1544,28 @@
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="50">
+        <v>27</v>
+      </c>
+      <c r="B12" s="27">
         <v>45901</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H12" s="17" t="s">
-        <v>38</v>
+      <c r="C12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1589,28 +1605,28 @@
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="50">
+        <v>28</v>
+      </c>
+      <c r="B13" s="27">
         <v>45901</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>38</v>
+      <c r="C13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1650,28 +1666,28 @@
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="50">
+        <v>30</v>
+      </c>
+      <c r="B14" s="27">
         <v>45901</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>38</v>
+      <c r="C14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1711,17 +1727,17 @@
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="50">
+        <v>31</v>
+      </c>
+      <c r="B15" s="27">
         <v>45901</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="16"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1760,28 +1776,28 @@
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="50">
+        <v>32</v>
+      </c>
+      <c r="B16" s="27">
         <v>45931</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>38</v>
+      <c r="C16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>34</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -1821,17 +1837,17 @@
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="50">
+        <v>36</v>
+      </c>
+      <c r="B17" s="27">
         <v>45931</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1871,12 +1887,12 @@
     <row r="18" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="16"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1914,16 +1930,16 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36"/>
+      <c r="A19" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="53"/>
       <c r="I19"/>
       <c r="J19"/>
       <c r="K19"/>
@@ -1961,29 +1977,29 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="G20" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="H20" s="57" t="s">
-        <v>38</v>
+      <c r="A20" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="I20"/>
       <c r="J20"/>
@@ -2023,28 +2039,28 @@
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G21" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="H21" s="57" t="s">
-        <v>38</v>
+        <v>22</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -2085,12 +2101,12 @@
     <row r="22" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="23"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="16"/>
       <c r="I22"/>
       <c r="J22"/>
       <c r="K22"/>
@@ -2130,12 +2146,12 @@
     <row r="23" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="16"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2175,12 +2191,12 @@
     <row r="24" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="16"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2220,12 +2236,12 @@
     <row r="25" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
       <c r="I25"/>
       <c r="J25"/>
       <c r="K25"/>
@@ -2265,12 +2281,12 @@
     <row r="26" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="10"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16"/>
       <c r="I26"/>
       <c r="J26"/>
       <c r="K26"/>
@@ -2308,16 +2324,16 @@
       <c r="AQ26"/>
     </row>
     <row r="27" spans="1:43" s="2" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36"/>
+      <c r="A27" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="53"/>
       <c r="I27"/>
       <c r="J27"/>
       <c r="K27"/>
@@ -2357,12 +2373,12 @@
     <row r="28" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="10"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="16"/>
       <c r="I28"/>
       <c r="J28"/>
       <c r="K28"/>
@@ -2402,12 +2418,12 @@
     <row r="29" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="10"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16"/>
       <c r="I29"/>
       <c r="J29"/>
       <c r="K29"/>
@@ -2447,12 +2463,12 @@
     <row r="30" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="10"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16"/>
       <c r="I30"/>
       <c r="J30"/>
       <c r="K30"/>
@@ -2492,12 +2508,12 @@
     <row r="31" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="10"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
       <c r="I31"/>
       <c r="J31"/>
       <c r="K31"/>
@@ -2537,12 +2553,12 @@
     <row r="32" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="10"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="16"/>
       <c r="I32"/>
       <c r="J32"/>
       <c r="K32"/>
@@ -2582,12 +2598,12 @@
     <row r="33" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="10"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="16"/>
       <c r="I33"/>
       <c r="J33"/>
       <c r="K33"/>
@@ -2627,12 +2643,12 @@
     <row r="34" spans="1:43" s="2" customFormat="1" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="12"/>
       <c r="B34" s="13"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="18"/>
       <c r="I34"/>
       <c r="J34"/>
       <c r="K34"/>
@@ -2762,11 +2778,6 @@
     <row r="81" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2774,6 +2785,11 @@
     <mergeCell ref="A27:H27"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
